--- a/lorry.xlsx
+++ b/lorry.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>4564</t>
+  </si>
+  <si>
+    <t>14-03-2018</t>
   </si>
 </sst>
 </file>
@@ -454,7 +457,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K7" sqref="A2:K7"/>
@@ -817,6 +820,41 @@
         <v>13</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="n">
+        <v>56000.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>57000.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>8000.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>37600.0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/lorry.xlsx
+++ b/lorry.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
   <si>
     <t>Date</t>
   </si>
@@ -104,6 +104,30 @@
   </si>
   <si>
     <t>14-03-2018</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>06-03-2018</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>08-03-2018</t>
+  </si>
+  <si>
+    <t>465</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>05-03-2018</t>
+  </si>
+  <si>
+    <t>65</t>
   </si>
 </sst>
 </file>
@@ -457,7 +481,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K7" sqref="A2:K7"/>
@@ -855,6 +879,181 @@
         <v>13</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="n">
+        <v>55000.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>60000.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6000.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>19600.0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="n">
+        <v>654.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>654.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>654.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>654.0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>654.0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>6546.0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-46.0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>654.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5465.0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>654.0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>6546.0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>465.0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-707028.0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4684.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>6868.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>468.0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>468.0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>468.0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>229266.0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>65465.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>465.0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>654.0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>465.0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>140.0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4654.0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-264309.0</v>
+      </c>
+      <c r="K16" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/lorry.xlsx
+++ b/lorry.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
   <si>
     <t>Date</t>
   </si>
@@ -481,7 +481,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K7" sqref="A2:K7"/>
@@ -1054,6 +1054,41 @@
         <v>37</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2865.0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>31692.0</v>
+      </c>
+      <c r="K17" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
